--- a/SampleProject/Excel/RedirectURLs.xlsx
+++ b/SampleProject/Excel/RedirectURLs.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Old URL</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>https://press.amazonmgmstudios.com/us/en/original-series/uninterrupteds-top-class-the-life-and-times-of-the/4</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1428,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
@@ -1433,391 +1436,397 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="83.7523809523809" customWidth="1"/>
-    <col min="2" max="2" width="72.3809523809524" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="83.7523809523809"/>
+    <col min="2" max="2" customWidth="true" width="72.3809523809524"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>73</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>77</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>81</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>87</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>89</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>91</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:2">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>95</v>
       </c>
     </row>
